--- a/Data/XLSX/Subject Data.xlsx
+++ b/Data/XLSX/Subject Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mook Space\work\college\project1\Analytics_and_Prediction_System_for_CE_Curriculum_administrators\Data\XLSX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA9E27CE-F0F8-4AF4-B0D6-D395315ABEFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F60CF-969B-41AC-9B2F-49CB486A0D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{B773CC89-A83C-4A3D-B536-374512BD474E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{B773CC89-A83C-4A3D-B536-374512BD474E}"/>
   </bookViews>
   <sheets>
     <sheet name="2560" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="501">
   <si>
     <t>subject_id</t>
   </si>
@@ -1697,6 +1697,27 @@
   </si>
   <si>
     <t>subject_class</t>
+  </si>
+  <si>
+    <t>ซอฟต์แวร์,ดาต้า</t>
+  </si>
+  <si>
+    <t>ข้อมูลขนาดใหญ่,ธุรกิจอัจฉริยะ,ดาต้า</t>
+  </si>
+  <si>
+    <t>ข้อมูลขนาดใหญ่,ธุรกิจอัจฉริยะ,การทำนายผลข้อมูล,ดาต้า</t>
+  </si>
+  <si>
+    <t>ข้อมูลขนาดใหญ่,ธุรกิจอัจฉริยะ,เน็ตเวิร์ค,ดาต้า</t>
+  </si>
+  <si>
+    <t>ข้อมูลขนาดใหญ่,ธุรกิจอัจฉริยะ,ดาต้า,การทำนายผลข้อมูล</t>
+  </si>
+  <si>
+    <t>ซอฟต์แวร์,ข้อมูล,ดาต้า</t>
+  </si>
+  <si>
+    <t>เครื่องจักรอัจฉริยะ,การทำนายผลข้อมูล,ดาต้า</t>
   </si>
 </sst>
 </file>
@@ -4988,8 +5009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3015A46F-542D-4096-B92B-9DC86B73352A}">
   <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4997,7 +5018,7 @@
     <col min="1" max="1" width="10.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="63" style="7" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" style="8" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="51.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.140625" style="7"/>
   </cols>
@@ -5814,7 +5835,7 @@
         <v>262</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>124</v>
+        <v>494</v>
       </c>
       <c r="F46" s="7">
         <v>2560</v>
@@ -5894,7 +5915,7 @@
         <v>266</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>149</v>
+        <v>498</v>
       </c>
       <c r="F50" s="7">
         <v>2560</v>
@@ -5914,7 +5935,7 @@
         <v>267</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>214</v>
+        <v>496</v>
       </c>
       <c r="F51" s="7">
         <v>2560</v>
@@ -5934,7 +5955,7 @@
         <v>268</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>288</v>
+        <v>497</v>
       </c>
       <c r="F52" s="7">
         <v>2560</v>
@@ -5954,7 +5975,7 @@
         <v>269</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>214</v>
+        <v>489</v>
       </c>
       <c r="F53" s="7">
         <v>2560</v>
@@ -7219,7 +7240,7 @@
         <v>427</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="F123" s="7">
         <v>2564</v>
@@ -7339,7 +7360,7 @@
         <v>443</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F129" s="7">
         <v>2564</v>
@@ -7359,7 +7380,7 @@
         <v>444</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F130" s="7">
         <v>2564</v>
@@ -7379,7 +7400,7 @@
         <v>445</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F131" s="7">
         <v>2564</v>
@@ -7399,7 +7420,7 @@
         <v>447</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="F132" s="7">
         <v>2564</v>
@@ -7419,7 +7440,7 @@
         <v>449</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="F133" s="7">
         <v>2564</v>
@@ -7499,7 +7520,7 @@
         <v>453</v>
       </c>
       <c r="E137" s="7" t="s">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="F137" s="7">
         <v>2564</v>
